--- a/data/analysis/temporal_analysis/museum_activity_groups_var2_region-size.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var2_region-size.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>msg_count_twitter</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
   <si>
     <t>mean</t>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -473,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -494,11 +500,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -507,8 +513,12 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -544,63 +554,75 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>2.8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -608,29 +630,29 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>2.8</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>-1.9</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -647,32 +669,44 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
+        <v>1704</v>
+      </c>
+      <c r="D5">
         <v>189.3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>568</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -683,68 +717,80 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1704</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>189.3</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>11.1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-2.5</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <v>632</v>
+      </c>
+      <c r="Q5">
         <v>70.2</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>210.7</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>632</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
+        <v>70.2</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>11.1</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6">
+        <v>219</v>
+      </c>
+      <c r="D6">
         <v>54.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>109.5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -752,29 +798,29 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>54.8</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>219</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>54.8</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>25</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>-1.9</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -791,32 +837,44 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7">
         <v>14.6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>38.6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -827,645 +885,753 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>102</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>14.6</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>14.3</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>-2.4</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>227</v>
+      </c>
+      <c r="Q7">
         <v>32.4</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>85.8</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>227</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>7</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
+        <v>32.4</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>14.3</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8">
+        <v>57761</v>
+      </c>
+      <c r="D8">
         <v>1925.4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2940.5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>49</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1025</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2138.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>14068</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>30</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>1925.4</v>
+      </c>
+      <c r="M8">
         <v>24</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>80</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.7</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>17981</v>
+      </c>
+      <c r="Q8">
         <v>599.4</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>668.5</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>13.8</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>393</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>886</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>2799</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>30</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
+        <v>599.4</v>
+      </c>
+      <c r="Z8">
         <v>22</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>73.3</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
+        <v>103323</v>
+      </c>
+      <c r="D9">
         <v>1751.2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4046.8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>20.5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>514</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1137</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>25486</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>59</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>1751.2</v>
+      </c>
+      <c r="M9">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>84.7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.9</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <v>41655</v>
+      </c>
+      <c r="Q9">
         <v>706</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>1348.4</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>264</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>817</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>8014</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>59</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
+        <v>706</v>
+      </c>
+      <c r="Z9">
         <v>33</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>55.9</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10">
+        <v>96245</v>
+      </c>
+      <c r="D10">
         <v>729.1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2681.7</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>258.2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>19642</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>132</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>729.1</v>
+      </c>
+      <c r="M10">
         <v>67</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>50.8</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>-0.7</v>
       </c>
-      <c r="N10">
+      <c r="P10">
+        <v>25192</v>
+      </c>
+      <c r="Q10">
         <v>190.8</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>594.9</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>4440</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>132</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
+        <v>190.8</v>
+      </c>
+      <c r="Z10">
         <v>30</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>22.7</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11">
+        <v>8301</v>
+      </c>
+      <c r="D11">
         <v>1037.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1901.4</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>984</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4415</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>8</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>1037.6</v>
+      </c>
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>62.5</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-0.1</v>
       </c>
-      <c r="N11">
+      <c r="P11">
+        <v>4561</v>
+      </c>
+      <c r="Q11">
         <v>570.1</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>963.5</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>881.8</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>2718</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>8</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
+        <v>570.1</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>37.5</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12">
+        <v>59854</v>
+      </c>
+      <c r="D12">
         <v>1995.1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1915.2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>565.8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1236.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2785</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7774</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>30</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>1995.1</v>
+      </c>
+      <c r="M12">
         <v>28</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>93.3</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1.3</v>
       </c>
-      <c r="N12">
+      <c r="P12">
+        <v>17157</v>
+      </c>
+      <c r="Q12">
         <v>571.9</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>604.4</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>458.5</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>883.2</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>2387</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>30</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
+        <v>571.9</v>
+      </c>
+      <c r="Z12">
         <v>20</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>66.7</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13">
+        <v>157001</v>
+      </c>
+      <c r="D13">
         <v>2093.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4917</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>30.5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>281</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1467.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>27803</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>75</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <v>2093.3</v>
+      </c>
+      <c r="M13">
         <v>62</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>82.7</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.8</v>
       </c>
-      <c r="N13">
+      <c r="P13">
+        <v>42235</v>
+      </c>
+      <c r="Q13">
         <v>563.1</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>1404.7</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>613.5</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>9506</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>75</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
+        <v>563.1</v>
+      </c>
+      <c r="Z13">
         <v>37</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>49.3</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14">
+        <v>263325</v>
+      </c>
+      <c r="D14">
         <v>1202.4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4624.3</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>455</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>44782</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>219</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>1202.4</v>
+      </c>
+      <c r="M14">
         <v>129</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>58.9</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>-0.3</v>
       </c>
-      <c r="N14">
+      <c r="P14">
+        <v>40703</v>
+      </c>
+      <c r="Q14">
         <v>185.9</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>820</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>10347</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>219</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
+        <v>185.9</v>
+      </c>
+      <c r="Z14">
         <v>41</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>18.7</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15">
+        <v>3677</v>
+      </c>
+      <c r="D15">
         <v>459.6</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>586.8</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>99</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1073</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1245</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>459.6</v>
+      </c>
+      <c r="M15">
         <v>4</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>50</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>-0.7</v>
       </c>
-      <c r="N15">
+      <c r="P15">
+        <v>812</v>
+      </c>
+      <c r="Q15">
         <v>101.5</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>287.1</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>812</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>8</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
+        <v>101.5</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>12.5</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>2065</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>2065</v>
       </c>
       <c r="F16">
@@ -1481,29 +1647,29 @@
         <v>2065</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2065</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
+        <v>2065</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>100</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.6</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -1511,32 +1677,44 @@
         <v>0</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:28">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
         <v>28.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>57</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1544,29 +1722,29 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>28.5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>114</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <v>28.5</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>25</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>-1.9</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -1583,32 +1761,44 @@
         <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>4</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
         <v>2.3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -1616,29 +1806,29 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>3.5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <v>2.3</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>33.3</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>-1.5</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -1655,32 +1845,44 @@
         <v>0</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>3</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:28">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19">
+        <v>71202</v>
+      </c>
+      <c r="D19">
         <v>10171.7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>26012.6</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -1688,1159 +1890,1351 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1032.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>69137</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <v>10171.7</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>28.6</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>-1.7</v>
       </c>
-      <c r="N19">
+      <c r="P19">
+        <v>683</v>
+      </c>
+      <c r="Q19">
         <v>97.59999999999999</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>258.1</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>683</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>7</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>14.3</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20">
+        <v>104419</v>
+      </c>
+      <c r="D20">
         <v>10441.9</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8183.3</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>5856</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9964</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>13231.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>24416</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <v>10441.9</v>
+      </c>
+      <c r="M20">
         <v>9</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>90</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>1.1</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <v>11608</v>
+      </c>
+      <c r="Q20">
         <v>1160.8</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>949.1</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>472.2</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>1081</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1550.2</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>3063</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>10</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
+        <v>1160.8</v>
+      </c>
+      <c r="Z20">
         <v>8</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>80</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:28">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21">
+        <v>235530</v>
+      </c>
+      <c r="D21">
         <v>5607.9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8950.1</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>647</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1656</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5924.8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39187</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>42</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <v>5607.9</v>
+      </c>
+      <c r="M21">
         <v>37</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>88.09999999999999</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="P21">
+        <v>27870</v>
+      </c>
+      <c r="Q21">
         <v>663.6</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>656.2</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>632</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1074</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>2496</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>42</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
+        <v>663.6</v>
+      </c>
+      <c r="Z21">
         <v>30</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>71.40000000000001</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:28">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>133719</v>
+      </c>
+      <c r="D22">
+        <v>2571.5</v>
+      </c>
+      <c r="E22">
+        <v>4188.1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>719.2</v>
+      </c>
+      <c r="H22">
+        <v>1778</v>
+      </c>
+      <c r="I22">
+        <v>2432.8</v>
+      </c>
+      <c r="J22">
+        <v>24121</v>
+      </c>
+      <c r="K22">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>2571.5</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>96.2</v>
+      </c>
+      <c r="O22">
+        <v>1.4</v>
+      </c>
+      <c r="P22">
+        <v>29102</v>
+      </c>
+      <c r="Q22">
+        <v>559.7</v>
+      </c>
+      <c r="R22">
+        <v>1139.7</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>405.5</v>
+      </c>
+      <c r="V22">
+        <v>741</v>
+      </c>
+      <c r="W22">
+        <v>7901</v>
+      </c>
+      <c r="X22">
+        <v>52</v>
+      </c>
+      <c r="Y22">
+        <v>559.7</v>
+      </c>
+      <c r="Z22">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>2571.5</v>
-      </c>
-      <c r="D22">
-        <v>4188.1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>719.2</v>
-      </c>
-      <c r="G22">
-        <v>1778</v>
-      </c>
-      <c r="H22">
-        <v>2432.8</v>
-      </c>
-      <c r="I22">
-        <v>24121</v>
-      </c>
-      <c r="J22">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-      <c r="L22">
-        <v>96.2</v>
-      </c>
-      <c r="M22">
-        <v>1.4</v>
-      </c>
-      <c r="N22">
-        <v>559.7</v>
-      </c>
-      <c r="O22">
-        <v>1139.7</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>405.5</v>
-      </c>
-      <c r="S22">
-        <v>741</v>
-      </c>
-      <c r="T22">
-        <v>7901</v>
-      </c>
-      <c r="U22">
-        <v>52</v>
-      </c>
-      <c r="V22">
-        <v>30</v>
-      </c>
-      <c r="W22">
+      <c r="AA22">
         <v>57.7</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:28">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23">
+        <v>361956</v>
+      </c>
+      <c r="D23">
         <v>3016.3</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>6035.4</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>9.800000000000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>692</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2841.2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>38812</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>120</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <v>3016.3</v>
+      </c>
+      <c r="M23">
         <v>91</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>75.8</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.5</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>62969</v>
+      </c>
+      <c r="Q23">
         <v>524.7</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>1407.1</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>703</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>12109</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>120</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
+        <v>524.7</v>
+      </c>
+      <c r="Z23">
         <v>52</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>43.3</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:28">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24">
+        <v>14863</v>
+      </c>
+      <c r="D24">
         <v>1061.6</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2475.7</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>10.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1142</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9435</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>14</v>
       </c>
-      <c r="K24">
+      <c r="L24">
+        <v>1061.6</v>
+      </c>
+      <c r="M24">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>64.3</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>-0.1</v>
       </c>
-      <c r="N24">
+      <c r="P24">
+        <v>17562</v>
+      </c>
+      <c r="Q24">
         <v>1254.4</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>2952.1</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>326.5</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>9022</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>14</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
+        <v>1254.4</v>
+      </c>
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>35.7</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25">
+        <v>39193</v>
+      </c>
+      <c r="D25">
         <v>1264.3</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1181.8</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>74.5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1133</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1925</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3426</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>31</v>
       </c>
-      <c r="K25">
+      <c r="L25">
+        <v>1264.3</v>
+      </c>
+      <c r="M25">
         <v>23</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>74.2</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.4</v>
       </c>
-      <c r="N25">
+      <c r="P25">
+        <v>16743</v>
+      </c>
+      <c r="Q25">
         <v>540.1</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>483.2</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>543</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>786</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>1531</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>31</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
+        <v>540.1</v>
+      </c>
+      <c r="Z25">
         <v>21</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>67.7</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>1.1</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:28">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26">
+        <v>13219</v>
+      </c>
+      <c r="D26">
         <v>508.4</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>652.8</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0.8</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>306.5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>706.8</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2300</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>26</v>
       </c>
-      <c r="K26">
+      <c r="L26">
+        <v>508.4</v>
+      </c>
+      <c r="M26">
         <v>19</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>73.09999999999999</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.4</v>
       </c>
-      <c r="N26">
+      <c r="P26">
+        <v>9002</v>
+      </c>
+      <c r="Q26">
         <v>346.2</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>481.2</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>43.5</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>573.5</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>1507</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>26</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
+        <v>346.2</v>
+      </c>
+      <c r="Z26">
         <v>13</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>50</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:28">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27">
+        <v>98130</v>
+      </c>
+      <c r="D27">
         <v>2582.4</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5473</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>277</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1558.8</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>26305</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>38</v>
       </c>
-      <c r="K27">
+      <c r="L27">
+        <v>2582.4</v>
+      </c>
+      <c r="M27">
         <v>25</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>65.8</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>14936</v>
+      </c>
+      <c r="Q27">
         <v>393.1</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>851.1</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>251.5</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>4194</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>38</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
+        <v>393.1</v>
+      </c>
+      <c r="Z27">
         <v>12</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <v>31.6</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:28">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28">
+        <v>88444</v>
+      </c>
+      <c r="D28">
         <v>8844.4</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>23553.9</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>13.8</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>121.5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2326</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>75337</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>10</v>
       </c>
-      <c r="K28">
+      <c r="L28">
+        <v>8844.4</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>80</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.7</v>
       </c>
-      <c r="N28">
+      <c r="P28">
+        <v>1067</v>
+      </c>
+      <c r="Q28">
         <v>106.7</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>224.3</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>94.5</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>703</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>10</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
+        <v>106.7</v>
+      </c>
+      <c r="Z28">
         <v>3</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
         <v>30</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29">
+        <v>147254</v>
+      </c>
+      <c r="D29">
         <v>2945.1</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3999.2</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>734.5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1807</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3511</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>23375</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>50</v>
       </c>
-      <c r="K29">
+      <c r="L29">
+        <v>2945.1</v>
+      </c>
+      <c r="M29">
         <v>46</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>92</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>1.2</v>
       </c>
-      <c r="N29">
+      <c r="P29">
+        <v>45328</v>
+      </c>
+      <c r="Q29">
         <v>906.6</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>1928.4</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>79.5</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>565.5</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>903.5</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>13270</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>50</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
+        <v>906.6</v>
+      </c>
+      <c r="Z29">
         <v>38</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>76</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:28">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
+        <v>122857</v>
+      </c>
+      <c r="D30">
         <v>1480.2</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2560.8</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>344</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1725.5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>15341</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>83</v>
       </c>
-      <c r="K30">
+      <c r="L30">
+        <v>1480.2</v>
+      </c>
+      <c r="M30">
         <v>57</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>68.7</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.2</v>
       </c>
-      <c r="N30">
+      <c r="P30">
+        <v>54514</v>
+      </c>
+      <c r="Q30">
         <v>656.8</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>1167.8</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>102</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>743</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>6552</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>83</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
+        <v>656.8</v>
+      </c>
+      <c r="Z30">
         <v>43</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <v>51.8</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:28">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31">
+        <v>182096</v>
+      </c>
+      <c r="D31">
         <v>1670.6</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3698.2</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>258</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1201</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>20536</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>109</v>
       </c>
-      <c r="K31">
+      <c r="L31">
+        <v>1670.6</v>
+      </c>
+      <c r="M31">
         <v>79</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>72.5</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.3</v>
       </c>
-      <c r="N31">
+      <c r="P31">
+        <v>38918</v>
+      </c>
+      <c r="Q31">
         <v>357</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>618.1</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>508</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>3599</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <v>109</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
+        <v>357</v>
+      </c>
+      <c r="Z31">
         <v>52</v>
       </c>
-      <c r="W31">
+      <c r="AA31">
         <v>47.7</v>
       </c>
-      <c r="X31">
+      <c r="AB31">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:28">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
+        <v>49170</v>
+      </c>
+      <c r="D32">
         <v>9834</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>21216.9</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>264</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>275</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>847</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>47784</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5</v>
       </c>
-      <c r="K32">
+      <c r="L32">
+        <v>9834</v>
+      </c>
+      <c r="M32">
         <v>4</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>80</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.7</v>
       </c>
-      <c r="N32">
+      <c r="P32">
+        <v>21807</v>
+      </c>
+      <c r="Q32">
         <v>4361.4</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>9070.799999999999</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>210</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1027</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>20570</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <v>5</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
+        <v>4361.4</v>
+      </c>
+      <c r="Z32">
         <v>3</v>
       </c>
-      <c r="W32">
+      <c r="AA32">
         <v>60</v>
       </c>
-      <c r="X32">
+      <c r="AB32">
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33">
+        <v>8387</v>
+      </c>
+      <c r="D33">
         <v>1198.1</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>905.7</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>667.5</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1084</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1695</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2578</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7</v>
       </c>
-      <c r="K33">
+      <c r="L33">
+        <v>1198.1</v>
+      </c>
+      <c r="M33">
         <v>6</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>85.7</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.9</v>
       </c>
-      <c r="N33">
+      <c r="P33">
+        <v>4750</v>
+      </c>
+      <c r="Q33">
         <v>678.6</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>400.8</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>523</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>751</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>824</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>1305</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>7</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
+        <v>678.6</v>
+      </c>
+      <c r="Z33">
         <v>6</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <v>85.7</v>
       </c>
-      <c r="X33">
+      <c r="AB33">
         <v>1.8</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:28">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34">
+        <v>62431</v>
+      </c>
+      <c r="D34">
         <v>3121.6</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>6424.5</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>491</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2001.8</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>25825</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>20</v>
       </c>
-      <c r="K34">
+      <c r="L34">
+        <v>3121.6</v>
+      </c>
+      <c r="M34">
         <v>13</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>65</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>-0</v>
       </c>
-      <c r="N34">
+      <c r="P34">
+        <v>25143</v>
+      </c>
+      <c r="Q34">
         <v>1257.2</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>2414.9</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
         <v>699</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>7467</v>
       </c>
-      <c r="U34">
+      <c r="X34">
         <v>20</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
+        <v>1257.2</v>
+      </c>
+      <c r="Z34">
         <v>9</v>
       </c>
-      <c r="W34">
+      <c r="AA34">
         <v>45</v>
       </c>
-      <c r="X34">
+      <c r="AB34">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:28">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35">
+        <v>74836</v>
+      </c>
+      <c r="D35">
         <v>1312.9</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4439.4</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -2848,361 +3242,421 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>227</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>25234</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>57</v>
       </c>
-      <c r="K35">
+      <c r="L35">
+        <v>1312.9</v>
+      </c>
+      <c r="M35">
         <v>28</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>49.1</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>-0.8</v>
       </c>
-      <c r="N35">
+      <c r="P35">
+        <v>15453</v>
+      </c>
+      <c r="Q35">
         <v>271.1</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>991</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>6999</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>57</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
+        <v>271.1</v>
+      </c>
+      <c r="Z35">
         <v>12</v>
       </c>
-      <c r="W35">
+      <c r="AA35">
         <v>21.1</v>
       </c>
-      <c r="X35">
+      <c r="AB35">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:28">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36">
+        <v>38678</v>
+      </c>
+      <c r="D36">
         <v>3867.8</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>7077.4</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>138.8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1398</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3077.8</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>23238</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>10</v>
       </c>
-      <c r="K36">
+      <c r="L36">
+        <v>3867.8</v>
+      </c>
+      <c r="M36">
         <v>8</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>80</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.7</v>
       </c>
-      <c r="N36">
+      <c r="P36">
+        <v>13757</v>
+      </c>
+      <c r="Q36">
         <v>1375.7</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>2290.8</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>134.2</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>687.5</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1352.8</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>7684</v>
       </c>
-      <c r="U36">
+      <c r="X36">
         <v>10</v>
       </c>
-      <c r="V36">
+      <c r="Y36">
+        <v>1375.7</v>
+      </c>
+      <c r="Z36">
         <v>7</v>
       </c>
-      <c r="W36">
+      <c r="AA36">
         <v>70</v>
       </c>
-      <c r="X36">
+      <c r="AB36">
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37">
+        <v>8612</v>
+      </c>
+      <c r="D37">
         <v>4306</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3196.1</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2046</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3176</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>4306</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5436</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6566</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37">
+        <v>4306</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
         <v>100</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>1.6</v>
       </c>
-      <c r="N37">
+      <c r="P37">
+        <v>1488</v>
+      </c>
+      <c r="Q37">
         <v>744</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>476.6</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>407</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>575.5</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>744</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>912.5</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>1081</v>
       </c>
-      <c r="U37">
+      <c r="X37">
         <v>2</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
+        <v>744</v>
+      </c>
+      <c r="Z37">
         <v>2</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>100</v>
       </c>
-      <c r="X37">
+      <c r="AB37">
         <v>2.4</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:28">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38">
+        <v>136357</v>
+      </c>
+      <c r="D38">
         <v>2727.1</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>4460.1</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>23.2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1057</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2650</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>18739</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>50</v>
       </c>
-      <c r="K38">
+      <c r="L38">
+        <v>2727.1</v>
+      </c>
+      <c r="M38">
         <v>39</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>78</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.6</v>
       </c>
-      <c r="N38">
+      <c r="P38">
+        <v>28460</v>
+      </c>
+      <c r="Q38">
         <v>569.2</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>710.7</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>250.5</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1011.2</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>3269</v>
       </c>
-      <c r="U38">
+      <c r="X38">
         <v>50</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
+        <v>569.2</v>
+      </c>
+      <c r="Z38">
         <v>27</v>
       </c>
-      <c r="W38">
+      <c r="AA38">
         <v>54</v>
       </c>
-      <c r="X38">
+      <c r="AB38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:28">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39">
+        <v>202407</v>
+      </c>
+      <c r="D39">
         <v>2044.5</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>7425.5</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>433</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1408.5</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>69234</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>99</v>
       </c>
-      <c r="K39">
+      <c r="L39">
+        <v>2044.5</v>
+      </c>
+      <c r="M39">
         <v>67</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>67.7</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.1</v>
       </c>
-      <c r="N39">
+      <c r="P39">
+        <v>42960</v>
+      </c>
+      <c r="Q39">
         <v>433.9</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>1228.5</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>391.5</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>9146</v>
       </c>
-      <c r="U39">
+      <c r="X39">
         <v>99</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
+        <v>433.9</v>
+      </c>
+      <c r="Z39">
         <v>35</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>35.4</v>
       </c>
-      <c r="X39">
+      <c r="AB39">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:28">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40">
+        <v>283659</v>
+      </c>
+      <c r="D40">
         <v>900.5</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4018.2</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -3210,651 +3664,759 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>363</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>57312</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>315</v>
       </c>
-      <c r="K40">
+      <c r="L40">
+        <v>900.5</v>
+      </c>
+      <c r="M40">
         <v>151</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>47.9</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>-0.8</v>
       </c>
-      <c r="N40">
+      <c r="P40">
+        <v>111759</v>
+      </c>
+      <c r="Q40">
         <v>354.8</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>2271.6</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>37563</v>
       </c>
-      <c r="U40">
+      <c r="X40">
         <v>315</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
+        <v>354.8</v>
+      </c>
+      <c r="Z40">
         <v>65</v>
       </c>
-      <c r="W40">
+      <c r="AA40">
         <v>20.6</v>
       </c>
-      <c r="X40">
+      <c r="AB40">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:28">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41">
+        <v>21224</v>
+      </c>
+      <c r="D41">
         <v>758</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1419.1</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>7.5</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1015.2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>6607</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>28</v>
       </c>
-      <c r="K41">
+      <c r="L41">
+        <v>758</v>
+      </c>
+      <c r="M41">
         <v>15</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>53.6</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>-0.5</v>
       </c>
-      <c r="N41">
+      <c r="P41">
+        <v>4087</v>
+      </c>
+      <c r="Q41">
         <v>146</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>325.5</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>15.2</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>1244</v>
       </c>
-      <c r="U41">
+      <c r="X41">
         <v>28</v>
       </c>
-      <c r="V41">
+      <c r="Y41">
+        <v>146</v>
+      </c>
+      <c r="Z41">
         <v>7</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
         <v>25</v>
       </c>
-      <c r="X41">
+      <c r="AB41">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42">
+        <v>202093</v>
+      </c>
+      <c r="D42">
         <v>2526.2</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>4181.1</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>417.5</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>777.5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2909.2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>26508</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>80</v>
       </c>
-      <c r="K42">
+      <c r="L42">
+        <v>2526.2</v>
+      </c>
+      <c r="M42">
         <v>71</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>88.8</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>1.1</v>
       </c>
-      <c r="N42">
+      <c r="P42">
+        <v>43165</v>
+      </c>
+      <c r="Q42">
         <v>539.6</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>535.4</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>344.5</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>1050.2</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>1701</v>
       </c>
-      <c r="U42">
+      <c r="X42">
         <v>80</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
+        <v>539.6</v>
+      </c>
+      <c r="Z42">
         <v>53</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
         <v>66.2</v>
       </c>
-      <c r="X42">
+      <c r="AB42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:28">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C43">
+        <v>287281</v>
+      </c>
+      <c r="D43">
         <v>2280</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>7184</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>19.5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>451.5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1550.8</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>60677</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>126</v>
       </c>
-      <c r="K43">
+      <c r="L43">
+        <v>2280</v>
+      </c>
+      <c r="M43">
         <v>103</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>81.7</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.8</v>
       </c>
-      <c r="N43">
+      <c r="P43">
+        <v>44447</v>
+      </c>
+      <c r="Q43">
         <v>352.8</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>734</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>560.2</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>5124</v>
       </c>
-      <c r="U43">
+      <c r="X43">
         <v>126</v>
       </c>
-      <c r="V43">
+      <c r="Y43">
+        <v>352.8</v>
+      </c>
+      <c r="Z43">
         <v>49</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
         <v>38.9</v>
       </c>
-      <c r="X43">
+      <c r="AB43">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:28">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C44">
+        <v>378363</v>
+      </c>
+      <c r="D44">
         <v>1472.2</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6189.9</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>39</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>681</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>74189</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>257</v>
       </c>
-      <c r="K44">
+      <c r="L44">
+        <v>1472.2</v>
+      </c>
+      <c r="M44">
         <v>158</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>61.5</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>-0.2</v>
       </c>
-      <c r="N44">
+      <c r="P44">
+        <v>73660</v>
+      </c>
+      <c r="Q44">
         <v>286.6</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>1510.5</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>22208</v>
       </c>
-      <c r="U44">
+      <c r="X44">
         <v>257</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
+        <v>286.6</v>
+      </c>
+      <c r="Z44">
         <v>59</v>
       </c>
-      <c r="W44">
+      <c r="AA44">
         <v>23</v>
       </c>
-      <c r="X44">
+      <c r="AB44">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:28">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45">
+        <v>5131</v>
+      </c>
+      <c r="D45">
         <v>427.6</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>581.6</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>57.5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>721.8</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1450</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>12</v>
       </c>
-      <c r="K45">
+      <c r="L45">
+        <v>427.6</v>
+      </c>
+      <c r="M45">
         <v>7</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>58.3</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>-0.3</v>
       </c>
-      <c r="N45">
+      <c r="P45">
+        <v>3953</v>
+      </c>
+      <c r="Q45">
         <v>329.4</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>526.7</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>597</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>1388</v>
       </c>
-      <c r="U45">
+      <c r="X45">
         <v>12</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
+        <v>329.4</v>
+      </c>
+      <c r="Z45">
         <v>4</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
         <v>33.3</v>
       </c>
-      <c r="X45">
+      <c r="AB45">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46">
+        <v>67611</v>
+      </c>
+      <c r="D46">
         <v>1165.7</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1642.9</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>66</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>694</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1421.8</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>10548</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>58</v>
       </c>
-      <c r="K46">
+      <c r="L46">
+        <v>1165.7</v>
+      </c>
+      <c r="M46">
         <v>47</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>81</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.7</v>
       </c>
-      <c r="N46">
+      <c r="P46">
+        <v>26374</v>
+      </c>
+      <c r="Q46">
         <v>454.7</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>500.7</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>425.5</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>752.5</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>2653</v>
       </c>
-      <c r="U46">
+      <c r="X46">
         <v>58</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
+        <v>454.7</v>
+      </c>
+      <c r="Z46">
         <v>38</v>
       </c>
-      <c r="W46">
+      <c r="AA46">
         <v>65.5</v>
       </c>
-      <c r="X46">
+      <c r="AB46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:28">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C47">
+        <v>93228</v>
+      </c>
+      <c r="D47">
         <v>817.8</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1555</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>137</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>898.5</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>10984</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>114</v>
       </c>
-      <c r="K47">
+      <c r="L47">
+        <v>817.8</v>
+      </c>
+      <c r="M47">
         <v>77</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>67.5</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.1</v>
       </c>
-      <c r="N47">
+      <c r="P47">
+        <v>78182</v>
+      </c>
+      <c r="Q47">
         <v>685.8</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>3551.1</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <v>594.5</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>37660</v>
       </c>
-      <c r="U47">
+      <c r="X47">
         <v>114</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
+        <v>685.8</v>
+      </c>
+      <c r="Z47">
         <v>45</v>
       </c>
-      <c r="W47">
+      <c r="AA47">
         <v>39.5</v>
       </c>
-      <c r="X47">
+      <c r="AB47">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:28">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48">
+        <v>141319</v>
+      </c>
+      <c r="D48">
         <v>598.8</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1805.4</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>16.5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>505</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>19876</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>236</v>
       </c>
-      <c r="K48">
+      <c r="L48">
+        <v>598.8</v>
+      </c>
+      <c r="M48">
         <v>136</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>57.6</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>-0.4</v>
       </c>
-      <c r="N48">
+      <c r="P48">
+        <v>37810</v>
+      </c>
+      <c r="Q48">
         <v>160.2</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>476</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>3743</v>
       </c>
-      <c r="U48">
+      <c r="X48">
         <v>236</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
+        <v>160.2</v>
+      </c>
+      <c r="Z48">
         <v>47</v>
       </c>
-      <c r="W48">
+      <c r="AA48">
         <v>19.9</v>
       </c>
-      <c r="X48">
+      <c r="AB48">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:28">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49">
+        <v>9940</v>
+      </c>
+      <c r="D49">
         <v>710</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1266.1</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
@@ -3862,869 +4424,1013 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>881.8</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>3908</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>14</v>
       </c>
-      <c r="K49">
+      <c r="L49">
+        <v>710</v>
+      </c>
+      <c r="M49">
         <v>6</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>42.9</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>-1</v>
       </c>
-      <c r="N49">
+      <c r="P49">
+        <v>3681</v>
+      </c>
+      <c r="Q49">
         <v>262.9</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>587.2</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <v>1973</v>
       </c>
-      <c r="U49">
+      <c r="X49">
         <v>14</v>
       </c>
-      <c r="V49">
+      <c r="Y49">
+        <v>262.9</v>
+      </c>
+      <c r="Z49">
         <v>3</v>
       </c>
-      <c r="W49">
+      <c r="AA49">
         <v>21.4</v>
       </c>
-      <c r="X49">
+      <c r="AB49">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50">
+        <v>37208</v>
+      </c>
+      <c r="D50">
         <v>1488.3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1955.6</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>177</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>856</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1587</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>6895</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>25</v>
       </c>
-      <c r="K50">
+      <c r="L50">
+        <v>1488.3</v>
+      </c>
+      <c r="M50">
         <v>21</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>84</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.9</v>
       </c>
-      <c r="N50">
+      <c r="P50">
+        <v>9987</v>
+      </c>
+      <c r="Q50">
         <v>399.5</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>444.1</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>327</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>619</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>1680</v>
       </c>
-      <c r="U50">
+      <c r="X50">
         <v>25</v>
       </c>
-      <c r="V50">
+      <c r="Y50">
+        <v>399.5</v>
+      </c>
+      <c r="Z50">
         <v>15</v>
       </c>
-      <c r="W50">
+      <c r="AA50">
         <v>60</v>
       </c>
-      <c r="X50">
+      <c r="AB50">
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:28">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C51">
+        <v>118639</v>
+      </c>
+      <c r="D51">
         <v>2197</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>5335.3</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
       <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>29.2</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>347</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1803.8</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>30943</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>54</v>
       </c>
-      <c r="K51">
+      <c r="L51">
+        <v>2197</v>
+      </c>
+      <c r="M51">
         <v>43</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>79.59999999999999</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>0.7</v>
       </c>
-      <c r="N51">
+      <c r="P51">
+        <v>42365</v>
+      </c>
+      <c r="Q51">
         <v>784.5</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>2125.4</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>581.2</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>13584</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>54</v>
       </c>
-      <c r="V51">
+      <c r="Y51">
+        <v>784.5</v>
+      </c>
+      <c r="Z51">
         <v>24</v>
       </c>
-      <c r="W51">
+      <c r="AA51">
         <v>44.4</v>
       </c>
-      <c r="X51">
+      <c r="AB51">
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:28">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C52">
+        <v>163480</v>
+      </c>
+      <c r="D52">
         <v>1318.4</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>4399.8</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>642.2</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>30940</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>124</v>
       </c>
-      <c r="K52">
+      <c r="L52">
+        <v>1318.4</v>
+      </c>
+      <c r="M52">
         <v>68</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>54.8</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>-0.5</v>
       </c>
-      <c r="N52">
+      <c r="P52">
+        <v>91192</v>
+      </c>
+      <c r="Q52">
         <v>735.4</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>2142.1</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
       <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>429.2</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>13530</v>
       </c>
-      <c r="U52">
+      <c r="X52">
         <v>124</v>
       </c>
-      <c r="V52">
+      <c r="Y52">
+        <v>735.4</v>
+      </c>
+      <c r="Z52">
         <v>54</v>
       </c>
-      <c r="W52">
+      <c r="AA52">
         <v>43.5</v>
       </c>
-      <c r="X52">
+      <c r="AB52">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:28">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53">
+        <v>4184</v>
+      </c>
+      <c r="D53">
         <v>1046</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2089.3</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1048</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>4180</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>4</v>
       </c>
-      <c r="K53">
+      <c r="L53">
+        <v>1046</v>
+      </c>
+      <c r="M53">
         <v>2</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>50</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>-0.7</v>
       </c>
-      <c r="N53">
+      <c r="P53">
+        <v>2914</v>
+      </c>
+      <c r="Q53">
         <v>728.5</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>1457</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <v>728.5</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>2914</v>
       </c>
-      <c r="U53">
+      <c r="X53">
         <v>4</v>
       </c>
-      <c r="V53">
+      <c r="Y53">
+        <v>728.5</v>
+      </c>
+      <c r="Z53">
         <v>1</v>
       </c>
-      <c r="W53">
+      <c r="AA53">
         <v>25</v>
       </c>
-      <c r="X53">
+      <c r="AB53">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54">
+        <v>128095</v>
+      </c>
+      <c r="D54">
         <v>3049.9</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>5248.6</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>408.2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1275</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>2627.8</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>23294</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>42</v>
       </c>
-      <c r="K54">
+      <c r="L54">
+        <v>3049.9</v>
+      </c>
+      <c r="M54">
         <v>36</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>85.7</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.9</v>
       </c>
-      <c r="N54">
+      <c r="P54">
+        <v>30629</v>
+      </c>
+      <c r="Q54">
         <v>729.3</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>1475.4</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <v>471.5</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>819</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>8506</v>
       </c>
-      <c r="U54">
+      <c r="X54">
         <v>42</v>
       </c>
-      <c r="V54">
+      <c r="Y54">
+        <v>729.3</v>
+      </c>
+      <c r="Z54">
         <v>23</v>
       </c>
-      <c r="W54">
+      <c r="AA54">
         <v>54.8</v>
       </c>
-      <c r="X54">
+      <c r="AB54">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:28">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C55">
+        <v>120992</v>
+      </c>
+      <c r="D55">
         <v>1680.4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>3764.4</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>253.5</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1756.8</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>22120</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>72</v>
       </c>
-      <c r="K55">
+      <c r="L55">
+        <v>1680.4</v>
+      </c>
+      <c r="M55">
         <v>53</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>73.59999999999999</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.4</v>
       </c>
-      <c r="N55">
+      <c r="P55">
+        <v>31829</v>
+      </c>
+      <c r="Q55">
         <v>442.1</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>912</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
       <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>499.8</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>5737</v>
       </c>
-      <c r="U55">
+      <c r="X55">
         <v>72</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
+        <v>442.1</v>
+      </c>
+      <c r="Z55">
         <v>33</v>
       </c>
-      <c r="W55">
+      <c r="AA55">
         <v>45.8</v>
       </c>
-      <c r="X55">
+      <c r="AB55">
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:28">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C56">
+        <v>154988</v>
+      </c>
+      <c r="D56">
         <v>1409</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>5281.6</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0.5</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>251.2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>39186</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>110</v>
       </c>
-      <c r="K56">
+      <c r="L56">
+        <v>1409</v>
+      </c>
+      <c r="M56">
         <v>55</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>50</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>-0.7</v>
       </c>
-      <c r="N56">
+      <c r="P56">
+        <v>22159</v>
+      </c>
+      <c r="Q56">
         <v>201.4</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>714.9</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>6264</v>
       </c>
-      <c r="U56">
+      <c r="X56">
         <v>110</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
+        <v>201.4</v>
+      </c>
+      <c r="Z56">
         <v>25</v>
       </c>
-      <c r="W56">
+      <c r="AA56">
         <v>22.7</v>
       </c>
-      <c r="X56">
+      <c r="AB56">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:28">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57">
+        <v>1004</v>
+      </c>
+      <c r="D57">
         <v>251</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>292.6</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>226.5</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>477.5</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>551</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>4</v>
       </c>
-      <c r="K57">
+      <c r="L57">
+        <v>251</v>
+      </c>
+      <c r="M57">
         <v>2</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>50</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>-0.7</v>
       </c>
-      <c r="N57">
+      <c r="P57">
+        <v>14416</v>
+      </c>
+      <c r="Q57">
         <v>3604</v>
       </c>
-      <c r="O57">
+      <c r="R57">
         <v>6441.9</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
         <v>396</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>579</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>3787</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>13258</v>
       </c>
-      <c r="U57">
+      <c r="X57">
         <v>4</v>
       </c>
-      <c r="V57">
+      <c r="Y57">
+        <v>3604</v>
+      </c>
+      <c r="Z57">
         <v>3</v>
       </c>
-      <c r="W57">
+      <c r="AA57">
         <v>75</v>
       </c>
-      <c r="X57">
+      <c r="AB57">
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C58">
+        <v>138310</v>
+      </c>
+      <c r="D58">
         <v>2881.5</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>3862.9</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>346.2</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1293</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>3561</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>16214</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>48</v>
       </c>
-      <c r="K58">
+      <c r="L58">
+        <v>2881.5</v>
+      </c>
+      <c r="M58">
         <v>39</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>81.2</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.7</v>
       </c>
-      <c r="N58">
+      <c r="P58">
+        <v>31643</v>
+      </c>
+      <c r="Q58">
         <v>659.2</v>
       </c>
-      <c r="O58">
+      <c r="R58">
         <v>662.7</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>563.5</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1047.2</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>3481</v>
       </c>
-      <c r="U58">
+      <c r="X58">
         <v>48</v>
       </c>
-      <c r="V58">
+      <c r="Y58">
+        <v>659.2</v>
+      </c>
+      <c r="Z58">
         <v>35</v>
       </c>
-      <c r="W58">
+      <c r="AA58">
         <v>72.90000000000001</v>
       </c>
-      <c r="X58">
+      <c r="AB58">
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:28">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C59">
+        <v>118089</v>
+      </c>
+      <c r="D59">
         <v>1663.2</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>3201.8</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>410</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1470.5</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>17527</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>71</v>
       </c>
-      <c r="K59">
+      <c r="L59">
+        <v>1663.2</v>
+      </c>
+      <c r="M59">
         <v>50</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>70.40000000000001</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.2</v>
       </c>
-      <c r="N59">
+      <c r="P59">
+        <v>35839</v>
+      </c>
+      <c r="Q59">
         <v>504.8</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>1214.6</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
         <v>474</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>5963</v>
       </c>
-      <c r="U59">
+      <c r="X59">
         <v>71</v>
       </c>
-      <c r="V59">
+      <c r="Y59">
+        <v>504.8</v>
+      </c>
+      <c r="Z59">
         <v>32</v>
       </c>
-      <c r="W59">
+      <c r="AA59">
         <v>45.1</v>
       </c>
-      <c r="X59">
+      <c r="AB59">
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:28">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C60">
+        <v>171788</v>
+      </c>
+      <c r="D60">
         <v>1700.9</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>6453.9</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>91</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>977</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>53110</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>101</v>
       </c>
-      <c r="K60">
+      <c r="L60">
+        <v>1700.9</v>
+      </c>
+      <c r="M60">
         <v>57</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>56.4</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>-0.4</v>
       </c>
-      <c r="N60">
+      <c r="P60">
+        <v>49777</v>
+      </c>
+      <c r="Q60">
         <v>492.8</v>
       </c>
-      <c r="O60">
+      <c r="R60">
         <v>2301.8</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
       <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>272</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>22243</v>
       </c>
-      <c r="U60">
+      <c r="X60">
         <v>101</v>
       </c>
-      <c r="V60">
+      <c r="Y60">
+        <v>492.8</v>
+      </c>
+      <c r="Z60">
         <v>33</v>
       </c>
-      <c r="W60">
+      <c r="AA60">
         <v>32.7</v>
       </c>
-      <c r="X60">
+      <c r="AB60">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:28">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61">
+        <v>19532</v>
+      </c>
+      <c r="D61">
         <v>2170.2</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>4082.2</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
@@ -4732,61 +5438,73 @@
         <v>0</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1536</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>12237</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>9</v>
       </c>
-      <c r="K61">
+      <c r="L61">
+        <v>2170.2</v>
+      </c>
+      <c r="M61">
         <v>4</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>44.4</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>-1</v>
       </c>
-      <c r="N61">
+      <c r="P61">
+        <v>2449</v>
+      </c>
+      <c r="Q61">
         <v>272.1</v>
       </c>
-      <c r="O61">
+      <c r="R61">
         <v>456</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
       <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>385</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>1193</v>
       </c>
-      <c r="U61">
+      <c r="X61">
         <v>9</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
+        <v>272.1</v>
+      </c>
+      <c r="Z61">
         <v>3</v>
       </c>
-      <c r="W61">
+      <c r="AA61">
         <v>33.3</v>
       </c>
-      <c r="X61">
+      <c r="AB61">
         <v>-0.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AB1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
